--- a/products_by_category.xlsx
+++ b/products_by_category.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Máy điều hòa không khí Giá rẻ 5" sheetId="1" r:id="rId1"/>
     <sheet name="Điện Thoại, Smartphone Chính Hã" sheetId="2" r:id="rId2"/>
     <sheet name="Mua tủ lạnh giá rẻ, tủ lạnh Inv" sheetId="3" r:id="rId3"/>
-    <sheet name="Tivi giá rẻ, trả góp 16102024 -" sheetId="4" r:id="rId4"/>
+    <sheet name="Tivi giá rẻ, trả góp 18102024 -" sheetId="4" r:id="rId4"/>
     <sheet name="Laptop" sheetId="5" r:id="rId5"/>
     <sheet name="Máy giặt Giá rẻ 52024, tiết kiệ" sheetId="6" r:id="rId6"/>
     <sheet name="Quạt, Quạt Điều Hòa Hơi nước Đi" sheetId="7" r:id="rId7"/>
@@ -18,7 +18,7 @@
     <sheet name="Máy In Màu, Máy In Văn Phòng, M" sheetId="9" r:id="rId9"/>
     <sheet name="Nồi cơm điện chính hãng, giá rẻ" sheetId="10" r:id="rId10"/>
     <sheet name="Nồi chiên không dầu giá rẻ chín" sheetId="11" r:id="rId11"/>
-    <sheet name="Máy lọc không khí giá rẻ 161020" sheetId="12" r:id="rId12"/>
+    <sheet name="Máy lọc không khí giá rẻ 181020" sheetId="12" r:id="rId12"/>
     <sheet name="Màn Hình Máy Tính" sheetId="13" r:id="rId13"/>
     <sheet name="Máy ép trái cây giá rẻ chính hã" sheetId="14" r:id="rId14"/>
     <sheet name="Máy lọc nước chính hãng, giá rẻ" sheetId="15" r:id="rId15"/>
@@ -182,18 +182,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=134488</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-lanh-daikin-inverter-1-5-hp-atkf35yvmv-arkf35yvmv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136843</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-lanh-reetech-inverter-1-hp-rtv9-tc-bi-rcv9-tc-bi-max.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135280</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-lanh-daikin-inverter-1-5-hp-atkf35yvmv-arkf35yvmv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136843</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-lanh-daikin-inverter-1-hp-atkf25yvmv-arkf25yvmv.html</t>
   </si>
   <si>
@@ -230,16 +230,22 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132091</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/dien-thoai-nokia-105-4g-pro-den.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131472</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a15-4g-8gb-128gb-vang.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133911</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-nokia-105-4g-pro-den.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131472</t>
+    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a05s-4gb-128gb-bac.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132097</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a15-4g-8gb-128gb-den.html</t>
@@ -248,12 +254,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133908</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a05s-4gb-128gb-bac.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132097</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/iphone-13-128gb-trang.html</t>
   </si>
   <si>
@@ -326,24 +326,36 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132034</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a55-5g-8gb-128gb-xanh.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135823</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/dien-thoai-oppo-a57-4gb-128gb-den.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127164</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/dien-thoai-iphone-15-pro-max-256gb-natural-titanium.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132031</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-oppo-a57-4gb-128gb-den.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127164</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/dien-thoai-xiaomi-redmi-14c-4gb-128gb-den.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=143640</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/dien-thoai-oppo-a57-4gb-128gb-xanh.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127160</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/dien-thoai-nokia-220-4g-ta-1611-ds-vn-cam.html</t>
   </si>
   <si>
@@ -356,10 +368,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=144855</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a55-5g-8gb-128gb-xanh.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135823</t>
+    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a25-5g-6gb-128gb-vang.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133918</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a55-5g-8gb-128gb-tim.html</t>
@@ -368,16 +380,16 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135828</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-oppo-a57-4gb-128gb-xanh.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127160</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a25-5g-6gb-128gb-vang.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133918</t>
+    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a25-5g-6gb-128gb-xanh.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133913</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/dien-thoai-nokia-110-4g-pro-tim.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131478</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a06-4g-4gb-128gb-xanh-nhat.html</t>
@@ -386,18 +398,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=150700</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/dien-thoai-samsung-galaxy-a25-5g-6gb-128gb-xanh.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133913</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/dien-thoai-nokia-110-4g-pro-tim.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131478</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-569-lit-r-wb640vgv0-gbk.html</t>
   </si>
   <si>
@@ -428,18 +428,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=123240</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/tu-lanh-toshiba-inverter-rt303we-pmv-52.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131223</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/tu-lanh-toshiba-inverter-gr-rt329we-pmv-52.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130260</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/tu-lanh-toshiba-inverter-rt303we-pmv-52.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131223</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/tu-lanh-toshiba-gr-rs600wi-pmv-37-sg.html</t>
   </si>
   <si>
@@ -452,30 +452,42 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131232</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/tu-lanh-lg-inverter-gr-b256bl.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131154</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/tu-lanh-sharp-inverter-sj-x215v-sl.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=138845</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/tu-lanh-aqua-inverter-aqr-t239fa-hb.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130905</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/tu-lanh-aqua-inverter-aqr-t220fa-fb.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=128553</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/tu-lanh-aqua-inverter-aqr-t239fa-hb.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130905</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/tu-lanh-mini-electrolux-94-lit-eum0930ad-vn.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118837</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/tu-lanh-mini-electrolux-94-lit-eum0930bd-vn.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118832</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/tu-lanh-sharp-inverter-sj-xp352ae-ds.html</t>
   </si>
   <si>
@@ -524,10 +536,22 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132893</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/tu-lanh-mini-electrolux-94-lit-eum0930bd-vn.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118832</t>
+    <t>https://www.nguyenkim.com/tu-lanh-sharp-inverter-sj-xp382ae-sl.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130720</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-339-lit-r-fvx450pgv9-gbk.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=104453</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-406-lit-r-fvx510pgv9-gbk.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=94570</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/tu-lanh-toshiba-inverter-gr-rt559we-pmv-58-mm.html</t>
@@ -536,28 +560,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132887</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/tu-lanh-sharp-inverter-sj-xp382ae-sl.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130720</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-406-lit-r-fvx510pgv9-gbk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=94570</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-339-lit-r-fvx450pgv9-gbk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=104453</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/tu-lanh-hitachi-inverter-569-lit-r-wb640pgv1-gmg.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119415</t>
+    <t>https://www.nguyenkim.com/tu-lanh-samsung-inverter-208-lit-rt20har8dbu.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=94121</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/tu-lanh-aqua-inverter-aqr-t299fa-sl.html</t>
@@ -566,16 +572,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137693</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/tu-lanh-lg-inverter-gr-b256bl.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131154</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/tu-lanh-aqua-50-lit-aqr-d60fa-bs.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=145025</t>
+    <t>https://www.nguyenkim.com/tu-lanh-lg-gn-d372psa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=115452</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-55-inch-qa55q60dakxxv.html</t>
@@ -596,6 +596,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135420</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-55-inch-ua55du8000kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136138</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-55-inch-qa55q70dakxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136068</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/android-tivi-tcl-hd-32-inch-32s5400a.html</t>
   </si>
   <si>
@@ -608,34 +620,52 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136088</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-55-inch-ua55du8000kxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136138</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-55-inch-qa55q70dakxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136068</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/google-tivi-tcl-led-4k-55-inch-55p638.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=121087</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-crystal-uhd-4k-43-inch-ua43au7002kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119441</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-55-inch-ua55du7700kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136183</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/google-tivi-led-sony-4k-55-inch-k-55s30-vn3.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137493</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-65-inch-ua65du8000kxxv.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136133</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-55-inch-ua55du7700kxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136183</t>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-43-inch-ua43du7700kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136193</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/google-tivi-led-sony-4k-43-inch-k-43s30-vn3.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137488</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-43-inch-qa43q60dakxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136103</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/google-tivi-sony-4k-55-inch-kd-55x75k-vn3.html</t>
@@ -644,10 +674,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118532</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-43-inch-ua43du7700kxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136193</t>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-65-inch-ua65du7700kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136173</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/android-tivi-hisense-hd-32-inch-32a4n.html</t>
@@ -662,16 +692,16 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140690</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/google-tivi-led-sony-4k-43-inch-k-43s30-vn3.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137488</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/google-tivi-led-sony-4k-55-inch-k-55s30-vn3.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137493</t>
+    <t>https://www.nguyenkim.com/smart-tivi-nanocell-lg-4k-65-inch-65nano76sqa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119112</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-43-inch-ua43du8000kxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136148</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/google-tivi-hisense-4k-55-inch-55a6500k.html</t>
@@ -680,22 +710,22 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=134963</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-65-inch-ua65du7700kxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136173</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/android-tivi-tcl-full-hd-40-inch-40s5400a.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130314</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-samsung-4k-43-inch-ua43du8000kxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136148</t>
+    <t>https://www.nguyenkim.com/google-tivi-sony-32-inch-kd-32w830k.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=120533</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/google-tivi-sony-4k-43-inch-kd-43x75k-vn3.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118519</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/google-tivi-sony-4k-65-inch-kd-65x75k-vn3.html</t>
@@ -704,58 +734,28 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118535</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/google-tivi-sony-32-inch-kd-32w830k.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=120533</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/google-tivi-led-tcl-4k-43-inch-43p755.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135888</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/google-tivi-led-tcl-4k-55-inch-55p755-pro.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135893</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/google-tivi-led-sony-4k-65-inch-k-65s30-vn3.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137498</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/smart-tivi-nanocell-lg-4k-43-inch-43nano81tsa.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137018</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/smart-tivi-nanocell-lg-4k-65-inch-65nano76sqa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119112</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-43-inch-qa43q60dakxxv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136103</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/google-tivi-sony-4k-43-inch-kd-43x75k-vn3.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118519</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/google-tivi-sony-4k-50-inch-kd-50x75k-vn3.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=118529</t>
+    <t>https://www.nguyenkim.com/smart-tivi-lg-4k-55-inch-55ut8050psb.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136988</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/smart-tivi-qled-samsung-4k-65-inch-qa65q70dakxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136063</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/laptop-asus-vivobook-go-14-r5-7520u-16gb-512gb-e1404fa-nk177w.html</t>
@@ -776,16 +776,70 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140485</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/laptop-hp-14-ep0128tu-i5-1335u-8u6l5pa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132454</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/laptop-acer-aspire-5-a514-55-5954-i5-1235u-nx-k5bsv-001.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131707</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-hp-14-ep0128tu-i5-1335u-8u6l5pa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132454</t>
+    <t>https://www.nguyenkim.com/laptop-acer-aspire-3-a314-23m-r4tx-r5-7520u-nx-kexsv-001.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131703</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-hp-14-ep0110tu-i7-1355u-8c5k9pa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132457</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-asus-vivobook-14-oled-i5-13500h-a1405va-km095w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130911</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-dell-inspiron-15-3530-i3-1305u-n3530-i3u165w11slu.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=139420</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-asus-tuf-gaming-f15-i5-12500h-16gb-512gb-win11-fx507zc4-hn095w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140480</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-asus-gaming-vivobook-16x-i5-12500h-k3605zf-rp634w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141720</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-hp-pavilion-x360-14-ek1047tu-i7-1355u-80r25pa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131118</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-dell-inspiron-15-3520-i5-1235u-n5i5052w1.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=138275</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-dell-inspiron-14-5420-i5-1235u-dgdcg1.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133407</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/laptop-hp-14s-dq5122tu-i3-1215u-8w356pa.html</t>
@@ -794,72 +848,24 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133349</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-acer-aspire-3-a314-23m-r4tx-r5-7520u-nx-kexsv-001.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131703</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-dell-inspiron-15-3530-i3-1305u-n3530-i3u165w11slu.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=139420</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-asus-vivobook-14-oled-i5-13500h-a1405va-km095w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130911</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-asus-tuf-gaming-f15-i5-12500h-16gb-512gb-win11-fx507zc4-hn095w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140480</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-hp-14-ep0110tu-i7-1355u-8c5k9pa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132457</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-asus-gaming-vivobook-16x-i5-12500h-k3605zf-rp634w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141720</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-hp-pavilion-x360-14-ek1047tu-i7-1355u-80r25pa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131118</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/laptop-asus-vivobook-15-i3-1315u-x1504va-nj069w.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129034</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-dell-inspiron-15-3520-i5-1235u-n5i5052w1.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=138275</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-dell-inspiron-14-5420-i5-1235u-dgdcg1.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133407</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/laptop-asus-vivobook-15-i5-1235u-x1504za-nj517w.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=143260</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/laptop-hp-pavilion-15-eg3093tu-i5-1335u-8c5l4pa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131121</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/laptop-dell-inspiron-14-5440-intel-core-5-120u-n4i5211w1.html</t>
   </si>
   <si>
@@ -872,22 +878,46 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127113</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/laptop-asus-vivobook-15-i5-1335u-16gb-512gb-x1504va-nj070w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137773</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-asus-vivobook-i3-1215u15-x1504za-nj582w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132448</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/laptop-lenovo-ideapad-3-14iau7-82rj0019vn.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=123268</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-asus-vivobook-15-i5-1335u-16gb-512gb-x1504va-nj070w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137773</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-asus-vivobook-i3-1215u15-x1504za-nj582w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132448</t>
+    <t>https://www.nguyenkim.com/laptop-msi-modern-14-r7-7730u-c7m-221vn.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132877</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-hp-pavilion-15-eg3091tu-i7-1355u-8c5l2pa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131119</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-asus-gaming-vivobook-i5-12500h-k3605zc-rp564w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=143150</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/laptop-acer-aspire-5-a515-58p-56rp-i5-1335u-nx-khjsv-008.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133147</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/laptop-acer-aspire-5-a514-56p-742f-i7-1355u-nx-khrsv-005.html</t>
@@ -896,42 +926,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133150</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-hp-pavilion-15-eg3093tu-i5-1335u-8c5l4pa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131121</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-acer-aspire-5-a515-58p-56rp-i5-1335u-nx-khjsv-008.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133147</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-asus-gaming-vivobook-i5-12500h-k3605zc-rp564w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=143150</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/laptop-msi-modern-14-r7-7730u-c7m-221vn.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132877</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/laptop-hp-pavilion-15-eg3033tx-i5-1335u-8u6l6pa.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132465</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/laptop-hp-pavilion-15-eg3091tu-i7-1355u-8c5l2pa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131119</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/laptop-hp-victus-gaming-15-fa1090tx-i5-13420h-8c5m7pa.html</t>
   </si>
   <si>
@@ -956,6 +956,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131463</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-giat-toshiba-8-kg-aw-m905bv-mk.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=124223</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-aw-dm1100pv-kk.html</t>
   </si>
   <si>
@@ -968,12 +974,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=95461</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-toshiba-8-kg-aw-m905bv-mk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=124223</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-giat-lg-inverter-fv1409s4m.html</t>
   </si>
   <si>
@@ -992,6 +992,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=134406</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-giat-samsung-inverter-wa12cg5745bvsv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127974</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-tw-t21bu115uwv-mg.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132481</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-aw-duk1300kv-mk.html</t>
   </si>
   <si>
@@ -1010,24 +1022,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=145040</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-tw-t21bu115uwv-mg.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132481</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-giat-lg-inverter-10-kg-fv1410s4w1.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131715</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-samsung-inverter-wa12cg5745bvsv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127974</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-giat-lg-inverter-10-kg-fv1410s4p.html</t>
   </si>
   <si>
@@ -1040,16 +1040,28 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132480</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-giat-aqua-inverter-aw10-b4959u1k-b.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=139045</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-giat-aqua-inverter-aqd-a1102j-bk.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130677</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-aqua-inverter-aw10-b4959u1k-b.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=139045</t>
+    <t>https://www.nguyenkim.com/may-giat-toshiba-10-kg-aw-m1100pv-mk.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=124230</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-giat-aqua-aqw-dr101gtbk.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=112452</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-12-kg-aw-duk1300kv-sg.html</t>
@@ -1064,18 +1076,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=145035</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-toshiba-10-kg-aw-m1100pv-mk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=124230</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-giat-aqua-aqw-dr101gtbk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=112452</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-giat-sharp-7-5-kg-es-y75hv-s.html</t>
   </si>
   <si>
@@ -1088,22 +1088,28 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=128778</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-giat-lg-inverter-t2512vbtb.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=144975</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-giat-lg-inverter-tv2517sv7j.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141605</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-giat-toshiba-inverter-aw-dum1400lv-mk.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131229</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-lg-inverter-tv2517sv7j.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141605</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-giat-lg-inverter-t2512vbtb.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=144975</t>
+    <t>https://www.nguyenkim.com/may-giat-lg-inverter-11-kg-fv1411s4p.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=109399</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-giat-aqua-inverter-12-kg-aw12-b4959u1k-b.html</t>
@@ -1112,12 +1118,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=155675</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-giat-aqua-inverter-aqd-a852j-bk.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131220</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/quat-dieu-hoa-rapido-everest-3000d.html</t>
   </si>
   <si>
@@ -1280,18 +1280,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=10416</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-qq-evo-20l-te.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=11424</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-verdi-15l-ae.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=73240</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-qq-evo-20l-te.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=11424</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-nuoc-nong-panasonic-dh-4ms1.html</t>
   </si>
   <si>
@@ -1382,18 +1382,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=7277</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-amore-gsp-4500w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=83999</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-verdi-30-ag.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141315</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-nuoc-nong-ferroli-amore-gsp-4500w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=83999</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-nuoc-nong-ariston-aures-premium-4-5p-space.html</t>
   </si>
   <si>
@@ -1430,12 +1430,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=35707</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-in-da-nang-laser-brother-dcp-l2520d.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=49076</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-in-laser-trang-den-hp-107a-4zb77a.html</t>
   </si>
   <si>
@@ -1580,10 +1574,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127373</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/noi-com-dien-goldsun-cb-3204.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=122271</t>
+    <t>https://www.nguyenkim.com/may-in-phun-mau-da-nang-hieu-epson-l6190.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=120905</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/noi-com-dien-midea-mr-cm1531.html</t>
@@ -1652,42 +1646,42 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=67151</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/noi-com-dien-sunhouse-1-lit-shd8208c.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=105465</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/noi-com-dien-sharp-ks-18tjv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=58261</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/noi-com-dien-happy-cook-hc-120-trang-xanh.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=25218</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/noi-com-dien-sunhouse-1-lit-shd8208c.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=105465</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/noi-com-dien-sharp-ks-18tjv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=58261</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/noi-com-dien-sunhouse-1.2l-shd8217w.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=83672</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/noi-com-dien-sharp-ksh-d11v.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=59877</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/noi-com-dien-sharp-ks-181tjv-bm.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=63207</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/noi-com-dien-sharp-ksh-d11v.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=59877</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/noi-com-dien-sharp-ks-181tjv-pb.html</t>
   </si>
   <si>
@@ -1706,6 +1700,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=110822</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/noi-com-dien-tu-sunhouse-shd8909.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=145150</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/noi-com-dien-sunhouse-1.8l-shd8607w.html</t>
   </si>
   <si>
@@ -1910,6 +1910,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117776</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/noi-chien-khong-dau-magic-eco-ac-102.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127513</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/noi-chien-khong-dau-hafele-hs-af601b.html</t>
   </si>
   <si>
@@ -1922,12 +1928,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=125089</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/noi-chien-khong-dau-magic-eco-ac-102.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=127513</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/noi-chien-khong-dau-sunhouse-shd4089.html</t>
   </si>
   <si>
@@ -2000,30 +2000,36 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=130683</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-loc-khong-khi-o-to-sharp-ig-nx2e-b.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136953</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-khong-khi-o-to-sharp-ig-nx2e-w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136958</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-loc-khong-khi-o-to-sharp-ig-nx2e-a.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136948</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-loc-khong-khi-o-to-sharp-ig-nx2e-b.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136953</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-khong-khi-o-to-sharp-ig-nx2e-w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=136958</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-loc-khong-khi-philips-ac0850-20.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=122412</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-loc-khong-khi-sharp-inverter-fp-s40v-w.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=138860</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-loc-khong-khi-sharp-fp-j40e-w.html</t>
   </si>
   <si>
@@ -2048,12 +2054,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=135803</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-loc-khong-khi-sharp-inverter-fp-s40v-w.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=138860</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-loc-khong-khi-sharp-inverter-fp-s40v-t.html</t>
   </si>
   <si>
@@ -2198,48 +2198,48 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=99352</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/man-hinh-may-tinh-acer-r241y.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=90168</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-lg-24qp550-b-atv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141135</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/man-hinh-lg-ips-23.8-inch-24mk600m-b.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=98657</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/man-hinh-lg-27mp500-b.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129812</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-hp-n220h-4jf58aa.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=86135</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-lcd-hp-p241v.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=90194</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/man-hinh-samsung-24-inch-full-hd-ls24a336nhexxv.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117723</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/man-hinh-may-tinh-acer-r241y.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=90168</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-lg-24qp550-b-atv.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=141135</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/man-hinh-lg-ips-23.8-inch-24mk600m-b.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=98657</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-hp-n220h-4jf58aa.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=86135</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/man-hinh-lg-27mp500-b.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129812</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/man-hinh-vi-tinh-lcd-hp-p241v.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=90194</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/man-hinh-samsung-27-inch-ls27c360eaexxv.html</t>
   </si>
   <si>
@@ -2252,12 +2252,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=112984</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/man-hinh-lg-24mp500-b.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129808</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/man-hinh-asus-vp229he.html</t>
   </si>
   <si>
@@ -2300,6 +2294,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137905</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/man-hinh-lfd-samsung-lh98qecelgcxxv.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=137920</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-ep-trai-cay-midea-mj-je35.html</t>
   </si>
   <si>
@@ -2486,18 +2486,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=100288</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-kangaroo-hydrogen-kg100hq.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=58229</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-loc-nuoc-kangaroo-kg19g4mkvtu.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=89241</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-kangaroo-hydrogen-kg100hq.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=58229</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-k9iq-2.0.html</t>
   </si>
   <si>
@@ -2516,6 +2516,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=120070</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-kangaroo-hydrogen-kg100hc-vtu.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=82608</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-loc-nuoc-ro-karofi-10-loi-kaq-p95.html</t>
   </si>
   <si>
@@ -2528,10 +2534,40 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=89277</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-kangaroo-hydrogen-kg100hc-vtu.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=82608</t>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-hydrogen-ion-kiem-kangaroo-kg100eo.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97877</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-pro-o-i439.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=96161</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-korihome-wpk-g61.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=83252</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-plus-o-p1310.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97329</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-o-s139-ns.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97332</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-loc-nuoc-nong-lanh-kangaroo-kg47.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=128315</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-loc-nuoc-ro-10-loi-sunhouse-sha88119k.html</t>
@@ -2552,42 +2588,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=75508</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-hydrogen-ion-kiem-kangaroo-kg100eo.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97877</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-pro-o-i439.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=96161</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-korihome-wpk-g61.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=83252</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-plus-o-p1310.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97329</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-karofi-optimus-o-s139-ns.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97332</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-loc-nuoc-nong-lanh-kangaroo-kg47.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=128315</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-loc-nuoc-ro-ultrapure-sunhouse-10-loi-sha8611k.html</t>
   </si>
   <si>
@@ -2768,18 +2768,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117053</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/quat-treo-asiavina-vy357690-trang.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117069</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/quat-lung-asiavina-vy358990-xam.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117058</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/quat-treo-asiavina-vy357690-trang.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=117069</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/quat-ban-asiavina-vy355790-xam.html</t>
   </si>
   <si>
@@ -2918,18 +2918,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=143725</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/bep-hong-ngoai-sunhouse-shd6015.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=51398</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/bep-tu-don-sunhouse-shd6802.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=121768</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/bep-hong-ngoai-sunhouse-shd6015.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=51398</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/bep-hong-ngoai-sunhouse-shd6017.html</t>
   </si>
   <si>
@@ -3050,16 +3050,22 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=72877</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/loa-thung-keo-bn-audio-ba-850-v.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133271</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/dan-am-thanh-di-dong-acnos-ksnet450.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132184</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-thung-keo-bn-audio-ba-850-v.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133271</t>
+    <t>https://www.nguyenkim.com/loa-karaoke-xach-tay-icore-s8.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129272</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/loa-karaoke-xach-tay-sumico-bt-s52-ent.html</t>
@@ -3068,12 +3074,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132220</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-karaoke-xach-tay-icore-s8.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=129272</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/loa-xach-tay-boston-audio-ba-9999-vii.html</t>
   </si>
   <si>
@@ -3086,6 +3086,12 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132193</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/amply-karaoke-sumico-su400.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=134823</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/dan-loa-karaoke-di-dong-acnos-cs550.html</t>
   </si>
   <si>
@@ -3098,22 +3104,28 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=104526</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-mtk-15-09.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119340</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-mtk-18-09.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119345</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/loa-bluetooth-sony-srs-xp500-bcsp6.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=107367</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-mtk-18-09.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119345</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-mtk-15-09.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119340</t>
+    <t>https://www.nguyenkim.com/loa-karaoke-jbl-pasion-10-pak.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=99599</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/dan-am-thanh-di-dong-acnos-cs450neo.html</t>
@@ -3122,36 +3134,36 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133437</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/loa-jbl-mk10.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=82108</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/loa-karaoke-jbl-pasion-12-pak.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=99602</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/loa-guinness-ss-108.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=101636</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/loa-thung-keo-hieu-boston-audio-ba2000-vii.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133346</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/loa-keo-karaoke-icore-i-15.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=131113</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-karaoke-jbl-pasion-12-pak.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=99602</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/loa-jbl-mk10.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=82108</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/loa-guinness-ss-108.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=101636</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/loa-thung-keo-hieu-boston-audio-ba2000-vii.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133346</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/loa-paramax-mk-s1000.html</t>
   </si>
   <si>
@@ -3170,12 +3182,6 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132172</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-paramax-mk-d2000.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=101701</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-f-15a-plus.html</t>
   </si>
   <si>
@@ -3188,16 +3194,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=99594</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/loa-karaoke-di-dong-microtek-mtk-20.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=119327</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/loa-paramax-mk-s2000.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=97597</t>
+    <t>https://www.nguyenkim.com/loa-boston-acoustics-md510.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=114448</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-tinh-bang-samsung-galaxy-tab-s6-lite-64gb-xam-2022-sm-p619.html</t>
@@ -3290,22 +3290,34 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=125942</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/may-tinh-bang-ipad-pro-m4-11-inch-wifi-cellular-256gb-mvw13za-a-den.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140860</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/may-tinh-bang-ipad-pro-m4-11-inch-wifi-512gb-mvvc3za-a-den.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140850</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/ipad-gen-9-wifi-cellular-64gb-10-2-inch-mk473za-a-xam-2021.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=111442</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-tinh-bang-samsung-galaxy-tab-s9-fe-128gb-bac.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=133511</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-tinh-bang-ipad-pro-m4-11-inch-wifi-cellular-256gb-mvw13za-a-den.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140860</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-tinh-bang-ipad-pro-m4-11-inch-wifi-512gb-mvvc3za-a-den.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140850</t>
+    <t>https://www.nguyenkim.com/ipad-gen-9-wifi-cellular-64gb-10-2-inch-mk493za-a-bac-2021.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=111444</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-tinh-bang-ipad-air-m2-10-86-inch-wifi-cellular-256gb-muxl3za-a-tim.html</t>
@@ -3332,18 +3344,18 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140820</t>
   </si>
   <si>
+    <t>https://www.nguyenkim.com/ipad-gen-10-wifi-cellular-64gb-mq6l3za-a-vang.html</t>
+  </si>
+  <si>
+    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=126033</t>
+  </si>
+  <si>
     <t>https://www.nguyenkim.com/may-tinh-bang-ipad-air-m2-10-86-inch-wifi-128gb-muwc3za-a-xam.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140905</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/ipad-gen-10-wifi-cellular-64gb-mq6l3za-a-vang.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=126033</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/may-tinh-bang-tcl-tab-11-wifi-128gb-xam.html</t>
   </si>
   <si>
@@ -3362,22 +3374,10 @@
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140825</t>
   </si>
   <si>
-    <t>https://www.nguyenkim.com/may-tinh-bang-ipad-air-m2-10-86-inch-wifi-128gb-muwe3za-a-starlight.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=140910</t>
-  </si>
-  <si>
     <t>https://www.nguyenkim.com/ipad-gen-10-wifi-cellular-64gb-mq6m3za-a-hong-2022.html</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=126034</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/may-tinh-bang-tcl-tab-11-wifi-128gb-tim.html</t>
-  </si>
-  <si>
-    <t>https://www.nguyenkim.com/index.php?dispatch=product_features.add_product&amp;product_id=132775</t>
   </si>
   <si>
     <t>https://www.nguyenkim.com/may-say-toc-coclear-ch6613.html</t>
